--- a/outputs-HGR-r202-archive/g__Olsenella_B_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Olsenella_B_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,38 +603,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000752675_3.fasta</t>
+          <t>label_GCF_000752675_0.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7029972439207801</v>
+        <v>0.4052759366277362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2970027560792199</v>
+        <v>0.5947240633722638</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7029972439207801</v>
+        <v>0.5947240633722638</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>s__Olsenella_B sp000752675</t>
+          <t>s__Olsenella_B sp900548775</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000752675_0.fasta</t>
+          <t>label_GCF_000752675_2.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4052759366277362</v>
+        <v>0.4250327615935484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5947240633722638</v>
+        <v>0.5749672384064516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5947240633722638</v>
+        <v>0.5749672384064516</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -645,38 +645,38 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000752675_2.fasta</t>
+          <t>label_GCF_000752675_5.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4250327615935484</v>
+        <v>0.939756365857946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5749672384064516</v>
+        <v>0.06024363414205407</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5749672384064516</v>
+        <v>0.939756365857946</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>s__Olsenella_B sp900548775</t>
+          <t>s__Olsenella_B sp000752675</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000752675_5.fasta</t>
+          <t>label_GCF_000752675_1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.939756365857946</v>
+        <v>0.999396493123148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06024363414205407</v>
+        <v>0.0006035068768519029</v>
       </c>
       <c r="D8" t="n">
-        <v>0.939756365857946</v>
+        <v>0.999396493123148</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -687,17 +687,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000752675_1.fasta</t>
+          <t>label_GCF_000752675_4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999396493123148</v>
+        <v>0.9999291450770571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006035068768519029</v>
+        <v>7.085492294292591e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999396493123148</v>
+        <v>0.9999291450770571</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -708,40 +708,19 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000752675_4.fasta</t>
+          <t>label_GCF_000752675_6.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999291450770571</v>
+        <v>0.009098175699534861</v>
       </c>
       <c r="C10" t="n">
-        <v>7.085492294292591e-05</v>
+        <v>0.9909018243004651</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999291450770571</v>
+        <v>0.9909018243004651</v>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp000752675</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000752675_6.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.009098175699534861</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9909018243004651</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9909018243004651</v>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>s__Olsenella_B sp900548775</t>
         </is>
@@ -758,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,38 +1069,38 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_11.fasta</t>
+          <t>label_UMGS1121_0.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0001052212496858163</v>
+        <v>0.6340997933766039</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9998947787503142</v>
+        <v>0.3659002066233961</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998947787503142</v>
+        <v>0.6340997933766039</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>s__Olsenella_B sp900548775</t>
+          <t>s__Olsenella_B sp000752675</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_13.fasta</t>
+          <t>label_UMGS1121_1.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.040407972043084e-05</v>
+        <v>0.2829474837882149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999195959202796</v>
+        <v>0.7170525162117851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999195959202796</v>
+        <v>0.7170525162117851</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1132,17 +1111,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_18.fasta</t>
+          <t>label_UMGS1121_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.095864521740488e-06</v>
+        <v>0.005958887255990475</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999969041354783</v>
+        <v>0.9940411127440095</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999969041354783</v>
+        <v>0.9940411127440095</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1153,17 +1132,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_34.fasta</t>
+          <t>label_UMGS1121_23.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.763554151601454e-07</v>
+        <v>0.005011920296910111</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999998236445848</v>
+        <v>0.9949880797030899</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999998236445848</v>
+        <v>0.9949880797030899</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1174,17 +1153,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_4.fasta</t>
+          <t>label_UMGS1121_25.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006134578895995224</v>
+        <v>0.003436286074311012</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9938654211040048</v>
+        <v>0.996563713925689</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9938654211040048</v>
+        <v>0.996563713925689</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1195,17 +1174,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_41.fasta</t>
+          <t>label_UMGS1121_26.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.058306725587599e-07</v>
+        <v>0.003559665758106845</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999998941693274</v>
+        <v>0.9964403342418932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999998941693274</v>
+        <v>0.9964403342418932</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1216,17 +1195,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_42.fasta</t>
+          <t>label_UMGS1121_3.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.624382598019452e-09</v>
+        <v>0.1999122698153453</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999999933756174</v>
+        <v>0.8000877301846547</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999933756174</v>
+        <v>0.8000877301846547</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1237,17 +1216,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_46.fasta</t>
+          <t>label_UMGS1121_37.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.397170112937829e-08</v>
+        <v>0.0002686484134212241</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9999999860282989</v>
+        <v>0.9997313515865788</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999860282989</v>
+        <v>0.9997313515865788</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1258,17 +1237,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_50.fasta</t>
+          <t>label_UMGS1121_38.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.680580450473371e-09</v>
+        <v>0.0001126051856429333</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9999999943194195</v>
+        <v>0.9998873948143571</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999943194195</v>
+        <v>0.9998873948143571</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1279,17 +1258,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_52.fasta</t>
+          <t>label_UMGS1121_40.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.191462732450191e-09</v>
+        <v>0.0003451440374682146</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9999999958085373</v>
+        <v>0.9996548559625318</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999958085373</v>
+        <v>0.9996548559625318</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1300,17 +1279,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_58.fasta</t>
+          <t>label_UMGS1121_44.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.401483343410064e-09</v>
+        <v>0.000327626552236393</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9999999935985167</v>
+        <v>0.9996723734477636</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999935985167</v>
+        <v>0.9996723734477636</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1321,17 +1300,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_59.fasta</t>
+          <t>label_UMGS1121_45.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.511989807973407e-09</v>
+        <v>0.0001950707287510234</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9999999924880102</v>
+        <v>0.999804929271249</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999999924880102</v>
+        <v>0.999804929271249</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1342,17 +1321,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_68.fasta</t>
+          <t>label_UMGS1121_57.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.310608608364518e-07</v>
+        <v>0.0001127296761145313</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9999996689391392</v>
+        <v>0.9998872703238855</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999996689391392</v>
+        <v>0.9998872703238855</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1363,17 +1342,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_71.fasta</t>
+          <t>label_UMGS1121_60.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001012184401447125</v>
+        <v>0.0001103367809788258</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9989878155985529</v>
+        <v>0.9998896632190212</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9989878155985529</v>
+        <v>0.9998896632190212</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1384,17 +1363,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_72.fasta</t>
+          <t>label_UMGS1121_65.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.505645642776223e-06</v>
+        <v>0.0002767451786600539</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9999964943543572</v>
+        <v>0.9997232548213399</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999964943543572</v>
+        <v>0.9997232548213399</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1405,17 +1384,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_74.fasta</t>
+          <t>label_UMGS1121_69.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.000334666727760391</v>
+        <v>0.01045138903288823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9996653332722396</v>
+        <v>0.9895486109671118</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9996653332722396</v>
+        <v>0.9895486109671118</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1426,38 +1405,38 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_0.fasta</t>
+          <t>label_UMGS1121_73.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6340997933766039</v>
+        <v>0.003099734396151743</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3659002066233961</v>
+        <v>0.9969002656038483</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6340997933766039</v>
+        <v>0.9969002656038483</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>s__Olsenella_B sp000752675</t>
+          <t>s__Olsenella_B sp900548775</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_1.fasta</t>
+          <t>label_UMGS1121_16.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2829474837882149</v>
+        <v>0.001815244875116417</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7170525162117851</v>
+        <v>0.9981847551248836</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7170525162117851</v>
+        <v>0.9981847551248836</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1468,17 +1447,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_19.fasta</t>
+          <t>label_UMGS1121_2.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.005958887255990475</v>
+        <v>0.1513471708744589</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9940411127440095</v>
+        <v>0.8486528291255411</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9940411127440095</v>
+        <v>0.8486528291255411</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1489,17 +1468,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_23.fasta</t>
+          <t>label_UMGS1121_20.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.005011920296910111</v>
+        <v>0.01167771465832768</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9949880797030899</v>
+        <v>0.9883222853416723</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9949880797030899</v>
+        <v>0.9883222853416723</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1510,17 +1489,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_25.fasta</t>
+          <t>label_UMGS1121_24.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.003436286074311012</v>
+        <v>0.0002113260133407291</v>
       </c>
       <c r="C36" t="n">
-        <v>0.996563713925689</v>
+        <v>0.9997886739866593</v>
       </c>
       <c r="D36" t="n">
-        <v>0.996563713925689</v>
+        <v>0.9997886739866593</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1531,17 +1510,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_26.fasta</t>
+          <t>label_UMGS1121_29.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.003559665758106845</v>
+        <v>0.001042599212243922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9964403342418932</v>
+        <v>0.9989574007877561</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9964403342418932</v>
+        <v>0.9989574007877561</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1552,17 +1531,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_3.fasta</t>
+          <t>label_UMGS1121_30.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1999122698153453</v>
+        <v>0.002145498881946373</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8000877301846547</v>
+        <v>0.9978545011180536</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8000877301846547</v>
+        <v>0.9978545011180536</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1573,17 +1552,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_37.fasta</t>
+          <t>label_UMGS1121_32.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0002686484134212241</v>
+        <v>0.001740081008034355</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9997313515865788</v>
+        <v>0.9982599189919656</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9997313515865788</v>
+        <v>0.9982599189919656</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1594,17 +1573,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_38.fasta</t>
+          <t>label_UMGS1121_39.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0001126051856429333</v>
+        <v>0.0004072127967567063</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9998873948143571</v>
+        <v>0.9995927872032433</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9998873948143571</v>
+        <v>0.9995927872032433</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1615,17 +1594,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_40.fasta</t>
+          <t>label_UMGS1121_49.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0003451440374682146</v>
+        <v>0.0002670875377860371</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9996548559625318</v>
+        <v>0.999732912462214</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9996548559625318</v>
+        <v>0.999732912462214</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1636,17 +1615,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_44.fasta</t>
+          <t>label_UMGS1121_5.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.000327626552236393</v>
+        <v>0.07419341963604231</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9996723734477636</v>
+        <v>0.9258065803639577</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9996723734477636</v>
+        <v>0.9258065803639577</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1657,17 +1636,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_45.fasta</t>
+          <t>label_UMGS1121_53.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0001950707287510234</v>
+        <v>0.0001942760909303676</v>
       </c>
       <c r="C43" t="n">
-        <v>0.999804929271249</v>
+        <v>0.9998057239090696</v>
       </c>
       <c r="D43" t="n">
-        <v>0.999804929271249</v>
+        <v>0.9998057239090696</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1678,17 +1657,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_57.fasta</t>
+          <t>label_UMGS1121_63.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0001127296761145313</v>
+        <v>0.0003132297357820724</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9998872703238855</v>
+        <v>0.9996867702642179</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9998872703238855</v>
+        <v>0.9996867702642179</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1699,17 +1678,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_60.fasta</t>
+          <t>label_UMGS1121_67.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0001103367809788258</v>
+        <v>0.03840924914768895</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9998896632190212</v>
+        <v>0.961590750852311</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9998896632190212</v>
+        <v>0.961590750852311</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1720,17 +1699,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_65.fasta</t>
+          <t>label_UMGS1121_77.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0002767451786600539</v>
+        <v>0.08105103187883389</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9997232548213399</v>
+        <v>0.9189489681211661</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9997232548213399</v>
+        <v>0.9189489681211661</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1741,17 +1720,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_69.fasta</t>
+          <t>label_UMGS1121_9.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01045138903288823</v>
+        <v>0.03308499156441469</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9895486109671118</v>
+        <v>0.9669150084355853</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9895486109671118</v>
+        <v>0.9669150084355853</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1762,17 +1741,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_73.fasta</t>
+          <t>label_UMGS1121_10.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.003099734396151743</v>
+        <v>0.002752725034616654</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9969002656038483</v>
+        <v>0.9972472749653833</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9969002656038483</v>
+        <v>0.9972472749653833</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1783,17 +1762,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_16.fasta</t>
+          <t>label_UMGS1121_12.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001815244875116417</v>
+        <v>1.990691557840485e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9981847551248836</v>
+        <v>0.9999800930844216</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9981847551248836</v>
+        <v>0.9999800930844216</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1804,17 +1783,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_2.fasta</t>
+          <t>label_UMGS1121_22.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1513471708744589</v>
+        <v>0.0001399254109164527</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8486528291255411</v>
+        <v>0.9998600745890835</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8486528291255411</v>
+        <v>0.9998600745890835</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1825,17 +1804,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_20.fasta</t>
+          <t>label_UMGS1121_27.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01167771465832768</v>
+        <v>7.868662911580948e-06</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9883222853416723</v>
+        <v>0.9999921313370884</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9883222853416723</v>
+        <v>0.9999921313370884</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1846,17 +1825,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_24.fasta</t>
+          <t>label_UMGS1121_28.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0002113260133407291</v>
+        <v>1.355707206163182e-06</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9997886739866593</v>
+        <v>0.9999986442927938</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9997886739866593</v>
+        <v>0.9999986442927938</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1867,17 +1846,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_29.fasta</t>
+          <t>label_UMGS1121_31.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.001042599212243922</v>
+        <v>5.525360371683164e-06</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9989574007877561</v>
+        <v>0.9999944746396283</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9989574007877561</v>
+        <v>0.9999944746396283</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1888,17 +1867,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_30.fasta</t>
+          <t>label_UMGS1121_35.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.002145498881946373</v>
+        <v>9.461471107696795e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9978545011180536</v>
+        <v>0.9999990538528892</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9978545011180536</v>
+        <v>0.9999990538528892</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1909,17 +1888,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_32.fasta</t>
+          <t>label_UMGS1121_36.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.001740081008034355</v>
+        <v>4.119287211334921e-08</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9982599189919656</v>
+        <v>0.9999999588071279</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9982599189919656</v>
+        <v>0.9999999588071279</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1930,17 +1909,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_39.fasta</t>
+          <t>label_UMGS1121_47.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0004072127967567063</v>
+        <v>9.39873583405415e-08</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9995927872032433</v>
+        <v>0.9999999060126417</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9995927872032433</v>
+        <v>0.9999999060126417</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1951,17 +1930,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_49.fasta</t>
+          <t>label_UMGS1121_51.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0002670875377860371</v>
+        <v>6.707320021615004e-08</v>
       </c>
       <c r="C57" t="n">
-        <v>0.999732912462214</v>
+        <v>0.9999999329267998</v>
       </c>
       <c r="D57" t="n">
-        <v>0.999732912462214</v>
+        <v>0.9999999329267998</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1972,17 +1951,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_5.fasta</t>
+          <t>label_UMGS1121_54.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.07419341963604231</v>
+        <v>4.901018768599385e-08</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9258065803639577</v>
+        <v>0.9999999509898123</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9258065803639577</v>
+        <v>0.9999999509898123</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1993,17 +1972,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_53.fasta</t>
+          <t>label_UMGS1121_56.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0001942760909303676</v>
+        <v>5.503812883222992e-08</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9998057239090696</v>
+        <v>0.9999999449618712</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9998057239090696</v>
+        <v>0.9999999449618712</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2014,17 +1993,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_63.fasta</t>
+          <t>label_UMGS1121_61.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0003132297357820724</v>
+        <v>1.765267713116359e-07</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9996867702642179</v>
+        <v>0.9999998234732287</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9996867702642179</v>
+        <v>0.9999998234732287</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2035,17 +2014,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_67.fasta</t>
+          <t>label_UMGS1121_62.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.03840924914768895</v>
+        <v>1.635313821024553e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>0.961590750852311</v>
+        <v>0.9999998364686179</v>
       </c>
       <c r="D61" t="n">
-        <v>0.961590750852311</v>
+        <v>0.9999998364686179</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2056,17 +2035,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_77.fasta</t>
+          <t>label_UMGS1121_64.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.08105103187883389</v>
+        <v>1.598166339267237e-07</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9189489681211661</v>
+        <v>0.9999998401833661</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9189489681211661</v>
+        <v>0.9999998401833661</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2077,17 +2056,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_9.fasta</t>
+          <t>label_UMGS1121_75.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03308499156441469</v>
+        <v>0.08830983445691709</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9669150084355853</v>
+        <v>0.9116901655430829</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9669150084355853</v>
+        <v>0.9116901655430829</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2098,17 +2077,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_10.fasta</t>
+          <t>label_UMGS1121_14.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.002752725034616654</v>
+        <v>1.345986877510086e-09</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9972472749653833</v>
+        <v>0.9999999986540131</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9972472749653833</v>
+        <v>0.9999999986540131</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2119,17 +2098,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_12.fasta</t>
+          <t>label_UMGS1121_15.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.990691557840485e-05</v>
+        <v>1.494293577763983e-11</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9999800930844216</v>
+        <v>0.9999999999850571</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999800930844216</v>
+        <v>0.9999999999850571</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2140,17 +2119,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_22.fasta</t>
+          <t>label_UMGS1121_17.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0001399254109164527</v>
+        <v>2.678814947643104e-10</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9998600745890835</v>
+        <v>0.9999999997321185</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9998600745890835</v>
+        <v>0.9999999997321185</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2161,17 +2140,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_27.fasta</t>
+          <t>label_UMGS1121_21.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7.868662911580948e-06</v>
+        <v>1.370903390807143e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9999921313370884</v>
+        <v>0.9999999999986291</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999921313370884</v>
+        <v>0.9999999999986291</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2182,17 +2161,17 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_28.fasta</t>
+          <t>label_UMGS1121_33.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.355707206163182e-06</v>
+        <v>1.521005543736464e-13</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9999986442927938</v>
+        <v>0.9999999999998479</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999986442927938</v>
+        <v>0.9999999999998479</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2203,17 +2182,17 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_31.fasta</t>
+          <t>label_UMGS1121_43.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5.525360371683164e-06</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9999944746396283</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999944746396283</v>
+        <v>1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2224,17 +2203,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_35.fasta</t>
+          <t>label_UMGS1121_48.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.461471107696795e-07</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9999990538528892</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9999990538528892</v>
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2245,17 +2224,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_36.fasta</t>
+          <t>label_UMGS1121_55.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.119287211334921e-08</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9999999588071279</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999999588071279</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2266,17 +2245,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_47.fasta</t>
+          <t>label_UMGS1121_6.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.39873583405415e-08</v>
+        <v>0.02069877718814372</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9999999060126417</v>
+        <v>0.9793012228118563</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999999060126417</v>
+        <v>0.9793012228118563</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2287,17 +2266,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_51.fasta</t>
+          <t>label_UMGS1121_66.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6.707320021615004e-08</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9999999329267998</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9999999329267998</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2308,17 +2287,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_54.fasta</t>
+          <t>label_UMGS1121_7.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.901018768599385e-08</v>
+        <v>0.0008026586659668489</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9999999509898123</v>
+        <v>0.9991973413340332</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9999999509898123</v>
+        <v>0.9991973413340332</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2329,17 +2308,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_56.fasta</t>
+          <t>label_UMGS1121_70.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.503812883222992e-08</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9999999449618712</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999999449618712</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2350,17 +2329,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_61.fasta</t>
+          <t>label_UMGS1121_76.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.765267713116359e-07</v>
+        <v>3.615268532097815e-06</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9999998234732287</v>
+        <v>0.9999963847314679</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999998234732287</v>
+        <v>0.9999963847314679</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2371,355 +2350,19 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1121_62.fasta</t>
+          <t>label_UMGS1121_8.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.635313821024553e-07</v>
+        <v>6.687586040499127e-10</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9999998364686179</v>
+        <v>0.9999999993312414</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999998364686179</v>
+        <v>0.9999999993312414</v>
       </c>
       <c r="E77" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_64.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1.598166339267237e-07</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.9999998401833661</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9999998401833661</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_75.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.08830983445691709</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.9116901655430829</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9116901655430829</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_14.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1.345986877510086e-09</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.9999999986540131</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9999999986540131</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_15.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>1.494293577763983e-11</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.9999999999850571</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9999999999850571</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_17.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2.678814947643104e-10</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.9999999997321185</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.9999999997321185</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_21.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1.370903390807143e-12</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.9999999999986291</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.9999999999986291</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_33.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1.521005543736464e-13</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.9999999999998479</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.9999999999998479</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_43.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_48.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_55.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_6.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.02069877718814372</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.9793012228118563</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.9793012228118563</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_66.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_7.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.0008026586659668489</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.9991973413340332</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.9991973413340332</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_70.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_76.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>3.615268532097815e-06</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.9999963847314679</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.9999963847314679</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>s__Olsenella_B sp900548775</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_8.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>6.687586040499127e-10</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.9999999993312414</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.9999999993312414</v>
-      </c>
-      <c r="E93" t="inlineStr">
         <is>
           <t>s__Olsenella_B sp900548775</t>
         </is>
